--- a/contracts/data/OTA_engine.xlsx
+++ b/contracts/data/OTA_engine.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\gsanders\Documents\Repositories\Engines\contracts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\Engines\contracts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CDD160-B0AA-48A4-9C49-1C40F3461DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B47912A-2C0B-4F20-8815-F3602EEEF8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProdServ" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11391" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11391" uniqueCount="650">
   <si>
     <t>EvaluatedPreference</t>
   </si>
@@ -2021,6 +2021,24 @@
   <si>
     <t>(blank)</t>
   </si>
+  <si>
+    <t xml:space="preserve">THE PURPOSE OF THIS MODIFICATION P00001 IS TO ALLOW FOR THE DELIVERY, INSTALLAION, AND INTEGRATION OF TWO ADDITIONAL SINGLE-PHASE RECOVERY TRANSFORMERS TO RESULT IN THE DELIVERY OF A 3-PHASE RECOVERY TRANSFORMER, AS DESCRIBED IN THE REVISED STATEMENT OF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVISION: RESILIENT SYSTEMS DIVISION (RSD)    
+PROGRAM: RESPONSE&amp;RECOVERY 
+PROJECT:   RECOVERY TRANSFORMER
+PERFORMER: EPRI
+PROJECT MANAGER:  SARAH MAHMOOD, (202) 254-6721
+ALC: 70-08-1513
+THE PURPOSE OF MODIFICATION P00006 IS TO:
+1.	INCORPORATE UPDATED </t>
+  </si>
+  <si>
+    <t>COVID-19 DIB
+A LIGHTWEIGHT, PORTABLE ENGINE AND SENSOR SYSTEM WILL BE DEVELOPED AND BUILT, SUITABLE FOR ON BOARD STOWAGE IN F-22. THE SYSTEM WILL IMPROVE MISSION READINESS AND FLEXIBILITY, AND REDUCE COSTS AND THE LOGISTICS
+FOOTPRINT.</t>
+  </si>
 </sst>
 </file>
 
@@ -2167,7 +2185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2347,6 +2365,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2509,7 +2539,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2531,6 +2561,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2578,30 +2626,2480 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="340">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -45483,7 +47981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="117">
     <pivotField showAll="0"/>
@@ -46140,10 +48638,10 @@
     <dataField name="Sum of Action_Obligation_OMB23_GDP21" fld="114" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="339">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="338">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -46160,7 +48658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B163" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="117">
     <pivotField showAll="0"/>
@@ -46300,7 +48798,7 @@
         <item m="1" x="135"/>
         <item m="1" x="84"/>
         <item m="1" x="138"/>
-        <item x="26"/>
+        <item n="COVID-19 DIB_x000a_A LIGHTWEIGHT, PORTABLE ENGINE AND SENSOR SYSTEM WILL BE DEVELOPED AND BUILT, SUITABLE FOR ON BOARD STOWAGE IN F-22. THE SYSTEM WILL IMPROVE MISSION READINESS AND FLEXIBILITY, AND REDUCE COSTS AND THE LOGISTICS_x000a_FOOTPRINT." x="26"/>
         <item m="1" x="128"/>
         <item m="1" x="178"/>
         <item m="1" x="117"/>
@@ -46315,7 +48813,7 @@
         <item m="1" x="188"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
+        <item n="DIVISION: RESILIENT SYSTEMS DIVISION (RSD)    _x000a_PROGRAM: RESPONSE&amp;RECOVERY _x000a_PROJECT:   RECOVERY TRANSFORMER_x000a_PERFORMER: EPRI_x000a_PROJECT MANAGER:  SARAH MAHMOOD, (202) 254-6721_x000a__x000a_ALC: 70-08-1513_x000a__x000a_THE PURPOSE OF MODIFICATION P00006 IS TO:_x000a_1._x0009_INCORPORATE UPDATED " x="9"/>
         <item x="59"/>
         <item m="1" x="172"/>
         <item m="1" x="114"/>
@@ -46456,7 +48954,7 @@
         <item x="1"/>
         <item m="1" x="187"/>
         <item m="1" x="111"/>
-        <item x="4"/>
+        <item n="THE PURPOSE OF THIS MODIFICATION P00001 IS TO ALLOW FOR THE DELIVERY, INSTALLAION, AND INTEGRATION OF TWO ADDITIONAL SINGLE-PHASE RECOVERY TRANSFORMERS TO RESULT IN THE DELIVERY OF A 3-PHASE RECOVERY TRANSFORMER, AS DESCRIBED IN THE REVISED STATEMENT OF " x="4"/>
         <item m="1" x="139"/>
         <item m="1" x="124"/>
         <item m="1" x="147"/>
@@ -47046,6 +49544,893 @@
   <dataFields count="1">
     <dataField name="Sum of Action_Obligation_OMB23_GDP21" fld="114" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="93">
+    <format dxfId="335">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="333">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="331">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="330">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="329">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="328">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="311">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="310">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="309">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="308">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="307">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="306">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="305">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="304">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="303">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="302">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="301">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="300">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="298">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="13" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="65" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="109" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="296">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="295">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="294">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="293">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="292">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="291">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="290">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="289">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="288">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="287">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="286">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="285">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="284">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="283">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="282">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="281">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="280">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="279">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="278">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="277">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="276">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="275">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="274">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="273">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="272">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="271">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="270">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="269">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="268">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="267">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="266">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="265">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="264">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="263">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="262">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="261">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="260">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="259">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="258">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="257">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="256">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="255">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="254">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="253">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="252">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="251">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="250">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="249">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="106">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="104">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="102">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="100">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="99">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="98">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -47357,7 +50742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B504"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -49366,14 +52751,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="184.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="162.28515625" bestFit="1" customWidth="1"/>
@@ -49562,11 +52947,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="13">
         <v>360299552.98574078</v>
       </c>
     </row>
@@ -49578,11 +52963,11 @@
         <v>360299552.98574078</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="13">
         <v>360299552.98574078</v>
       </c>
     </row>
@@ -49658,11 +53043,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="13">
         <v>184135841.2805872</v>
       </c>
     </row>
@@ -49674,11 +53059,11 @@
         <v>184135841.2805872</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="13">
         <v>184135841.2805872</v>
       </c>
     </row>
@@ -49722,11 +53107,11 @@
         <v>43347244.243961498</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="13">
         <v>139069035.61777949</v>
       </c>
     </row>
@@ -49738,11 +53123,11 @@
         <v>139069035.61777949</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="13">
         <v>139069035.61777949</v>
       </c>
     </row>
@@ -49802,11 +53187,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="13">
         <v>106118968.88602668</v>
       </c>
     </row>
@@ -49818,11 +53203,11 @@
         <v>106118968.88602668</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="13">
         <v>106118968.88602668</v>
       </c>
     </row>
@@ -49858,11 +53243,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="16">
         <v>65102941.72866869</v>
       </c>
     </row>
@@ -49946,11 +53331,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="16">
         <v>29625538.247083716</v>
       </c>
     </row>
@@ -50018,11 +53403,11 @@
         <v>6998775.0257134596</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="19">
         <v>8406484.4272715207</v>
       </c>
     </row>
@@ -50050,11 +53435,11 @@
         <v>8406484.4272715207</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="13">
         <v>8152995.8799999999</v>
       </c>
     </row>
@@ -50082,11 +53467,11 @@
         <v>8152995.8799999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="13">
         <v>5861187.9720067903</v>
       </c>
     </row>
@@ -50138,11 +53523,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="16">
         <v>5376884.5624584602</v>
       </c>
     </row>
@@ -50202,11 +53587,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="13">
         <v>4577355.0948246019</v>
       </c>
     </row>
@@ -50268,7 +53653,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>213</v>
+        <v>648</v>
       </c>
       <c r="B90" s="9">
         <v>0</v>
@@ -50276,17 +53661,17 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>187</v>
+        <v>647</v>
       </c>
       <c r="B91" s="9">
         <v>3118258.3973686299</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="13">
         <v>2999852.24</v>
       </c>
     </row>
@@ -50314,11 +53699,11 @@
         <v>2999852.24</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="13">
         <v>2010665.1263734899</v>
       </c>
     </row>
@@ -50354,11 +53739,11 @@
         <v>1005333.08156162</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="19">
         <v>1539575.3746630801</v>
       </c>
     </row>
@@ -50386,11 +53771,11 @@
         <v>1539575.3746630801</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="13">
         <v>1526693.07706952</v>
       </c>
     </row>
@@ -50426,11 +53811,11 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="13">
         <v>1519787.687331541</v>
       </c>
     </row>
@@ -50458,11 +53843,11 @@
         <v>1519787.687331541</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="13">
         <v>1013052.131964783</v>
       </c>
     </row>
@@ -50490,11 +53875,11 @@
         <v>1013052.131964783</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="13">
         <v>768761.30374843196</v>
       </c>
     </row>
@@ -50546,11 +53931,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="16">
         <v>667074.80166893604</v>
       </c>
     </row>
@@ -50594,11 +53979,11 @@
         <v>251046.03462481801</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="13">
         <v>591433.999781169</v>
       </c>
     </row>
@@ -50634,11 +54019,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="13">
         <v>581967.6</v>
       </c>
     </row>
@@ -50666,11 +54051,11 @@
         <v>581967.6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="19">
         <v>513190.76517077698</v>
       </c>
     </row>
@@ -50692,17 +54077,17 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>552</v>
+        <v>649</v>
       </c>
       <c r="B143" s="9">
         <v>513190.76517077698</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="13">
         <v>235000</v>
       </c>
     </row>
@@ -50730,11 +54115,11 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="13">
         <v>139642.56563269009</v>
       </c>
     </row>
@@ -50770,11 +54155,11 @@
         <v>121515.60517140701</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="13">
         <v>63217.553135674563</v>
       </c>
     </row>
@@ -50818,11 +54203,11 @@
         <v>-20527.671662174402</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="B159" s="9"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
@@ -50860,7 +54245,7 @@
   <dimension ref="A1:DM356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:DM157"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
